--- a/dataanalysis/data/predictions/1000/07210943_1000.xlsx
+++ b/dataanalysis/data/predictions/1000/07210943_1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -362,9 +365,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -722,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,19 +810,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>-5.73</v>
@@ -840,7 +843,7 @@
         <v>14989.64</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -860,8 +863,23 @@
       <c r="P2">
         <v>-0.41</v>
       </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>5.15</v>
+      </c>
+      <c r="S2">
+        <v>7.97</v>
+      </c>
       <c r="V2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -869,22 +887,25 @@
       <c r="Z2">
         <v>5.201241493225098</v>
       </c>
-      <c r="AA2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>1.49</v>
@@ -902,7 +923,7 @@
         <v>13575.09</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -922,8 +943,23 @@
       <c r="P3">
         <v>0.12</v>
       </c>
+      <c r="Q3">
+        <v>0.91</v>
+      </c>
+      <c r="R3">
+        <v>24.29</v>
+      </c>
+      <c r="S3">
+        <v>8.050000000000001</v>
+      </c>
       <c r="V3" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -931,22 +967,25 @@
       <c r="Z3">
         <v>0.7182156443595886</v>
       </c>
-      <c r="AA3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-0.58</v>
@@ -964,7 +1003,7 @@
         <v>17830.47</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -984,8 +1023,23 @@
       <c r="P4">
         <v>-0.18</v>
       </c>
+      <c r="Q4">
+        <v>-2.16</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>-0.28</v>
+      </c>
       <c r="V4" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -993,22 +1047,25 @@
       <c r="Z4">
         <v>2.264967203140259</v>
       </c>
-      <c r="AA4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1026,7 +1083,7 @@
         <v>36069.9</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1046,8 +1103,23 @@
       <c r="P5">
         <v>0.65</v>
       </c>
+      <c r="Q5">
+        <v>-7.07</v>
+      </c>
+      <c r="R5">
+        <v>6.8</v>
+      </c>
+      <c r="S5">
+        <v>4.45</v>
+      </c>
       <c r="V5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1055,22 +1127,25 @@
       <c r="Z5">
         <v>3.151420831680298</v>
       </c>
-      <c r="AA5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300180</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-0.22</v>
@@ -1088,7 +1163,7 @@
         <v>20587.38</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>24</v>
@@ -1108,8 +1183,23 @@
       <c r="P6">
         <v>-0.17</v>
       </c>
+      <c r="Q6">
+        <v>-1.87</v>
+      </c>
+      <c r="R6">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="S6">
+        <v>-0.33</v>
+      </c>
       <c r="V6" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1117,22 +1207,25 @@
       <c r="Z6">
         <v>3.730788469314575</v>
       </c>
-      <c r="AA6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300195</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.23</v>
@@ -1150,7 +1243,7 @@
         <v>9619.17</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1170,8 +1263,23 @@
       <c r="P7">
         <v>0.23</v>
       </c>
+      <c r="Q7">
+        <v>-0.72</v>
+      </c>
+      <c r="R7">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S7">
+        <v>6.42</v>
+      </c>
       <c r="V7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1179,22 +1287,25 @@
       <c r="Z7">
         <v>1.192893981933594</v>
       </c>
-      <c r="AA7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-2.59</v>
@@ -1212,7 +1323,7 @@
         <v>37476.27</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1232,8 +1343,23 @@
       <c r="P8">
         <v>-0.52</v>
       </c>
+      <c r="Q8">
+        <v>0.59</v>
+      </c>
+      <c r="R8">
+        <v>19.97</v>
+      </c>
+      <c r="S8">
+        <v>6.34</v>
+      </c>
       <c r="V8" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1241,22 +1367,25 @@
       <c r="Z8">
         <v>3.283434152603149</v>
       </c>
-      <c r="AA8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300283</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-4.98</v>
@@ -1274,7 +1403,7 @@
         <v>23912.06</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1294,8 +1423,23 @@
       <c r="P9">
         <v>-0.92</v>
       </c>
+      <c r="Q9">
+        <v>-3.2</v>
+      </c>
+      <c r="R9">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.98</v>
+      </c>
       <c r="V9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1303,22 +1447,25 @@
       <c r="Z9">
         <v>5.721930027008057</v>
       </c>
-      <c r="AA9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300348</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1.53</v>
@@ -1336,7 +1483,7 @@
         <v>36965.81</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1356,8 +1503,23 @@
       <c r="P10">
         <v>-0.4</v>
       </c>
+      <c r="Q10">
+        <v>-2.4</v>
+      </c>
+      <c r="R10">
+        <v>18.35</v>
+      </c>
+      <c r="S10">
+        <v>-1.71</v>
+      </c>
       <c r="V10" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1365,22 +1527,25 @@
       <c r="Z10">
         <v>3.738041639328003</v>
       </c>
-      <c r="AA10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300414</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0.53</v>
@@ -1398,7 +1563,7 @@
         <v>7472.34</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1418,8 +1583,23 @@
       <c r="P11">
         <v>0.15</v>
       </c>
+      <c r="Q11">
+        <v>2.86</v>
+      </c>
+      <c r="R11">
+        <v>14.79</v>
+      </c>
+      <c r="S11">
+        <v>10.37</v>
+      </c>
       <c r="V11" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1427,22 +1607,25 @@
       <c r="Z11">
         <v>1.157990097999573</v>
       </c>
-      <c r="AA11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300436</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-2.56</v>
@@ -1460,7 +1643,7 @@
         <v>20708.19</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <v>13</v>
@@ -1480,8 +1663,23 @@
       <c r="P12">
         <v>0.2</v>
       </c>
+      <c r="Q12">
+        <v>-5.51</v>
+      </c>
+      <c r="R12">
+        <v>77.61</v>
+      </c>
+      <c r="S12">
+        <v>13.46</v>
+      </c>
       <c r="V12" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1489,22 +1687,25 @@
       <c r="Z12">
         <v>3.529265165328979</v>
       </c>
-      <c r="AA12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300469</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0.37</v>
@@ -1522,7 +1723,7 @@
         <v>13874.77</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -1542,8 +1743,23 @@
       <c r="P13">
         <v>-0.04</v>
       </c>
+      <c r="Q13">
+        <v>-1.11</v>
+      </c>
+      <c r="R13">
+        <v>48.04</v>
+      </c>
+      <c r="S13">
+        <v>4.41</v>
+      </c>
       <c r="V13" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1551,22 +1767,25 @@
       <c r="Z13">
         <v>5.71390962600708</v>
       </c>
-      <c r="AA13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300502</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-0.72</v>
@@ -1584,7 +1803,7 @@
         <v>223667.64</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>19</v>
@@ -1604,8 +1823,23 @@
       <c r="P14">
         <v>-0.04</v>
       </c>
+      <c r="Q14">
+        <v>-0.87</v>
+      </c>
+      <c r="R14">
+        <v>184.2</v>
+      </c>
+      <c r="S14">
+        <v>1.77</v>
+      </c>
       <c r="V14" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1613,22 +1847,25 @@
       <c r="Z14">
         <v>2.835061073303223</v>
       </c>
-      <c r="AA14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300522</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-2.39</v>
@@ -1646,7 +1883,7 @@
         <v>10161.92</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1666,8 +1903,23 @@
       <c r="P15">
         <v>-0.29</v>
       </c>
+      <c r="Q15">
+        <v>-1.91</v>
+      </c>
+      <c r="R15">
+        <v>17.59</v>
+      </c>
+      <c r="S15">
+        <v>7.58</v>
+      </c>
       <c r="V15" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1675,22 +1927,25 @@
       <c r="Z15">
         <v>3.847294092178345</v>
       </c>
-      <c r="AA15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300527</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0.63</v>
@@ -1708,7 +1963,7 @@
         <v>9471.370000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>15</v>
@@ -1728,8 +1983,23 @@
       <c r="P16">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q16">
+        <v>10.39</v>
+      </c>
+      <c r="R16">
+        <v>12.74</v>
+      </c>
+      <c r="S16">
+        <v>13.65</v>
+      </c>
       <c r="V16" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1737,22 +2007,25 @@
       <c r="Z16">
         <v>5.860732555389404</v>
       </c>
-      <c r="AA16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300533</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>2.15</v>
@@ -1770,7 +2043,7 @@
         <v>19143.81</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17">
         <v>19</v>
@@ -1790,8 +2063,23 @@
       <c r="P17">
         <v>-0.12</v>
       </c>
+      <c r="Q17">
+        <v>-2.54</v>
+      </c>
+      <c r="R17">
+        <v>37.29</v>
+      </c>
+      <c r="S17">
+        <v>0.4</v>
+      </c>
       <c r="V17" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1799,22 +2087,25 @@
       <c r="Z17">
         <v>4.990926265716553</v>
       </c>
-      <c r="AA17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300537</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.98</v>
@@ -1832,7 +2123,7 @@
         <v>4494.77</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18">
         <v>16</v>
@@ -1852,8 +2143,23 @@
       <c r="P18">
         <v>0.06</v>
       </c>
+      <c r="Q18">
+        <v>-1.34</v>
+      </c>
+      <c r="R18">
+        <v>25.74</v>
+      </c>
+      <c r="S18">
+        <v>2.39</v>
+      </c>
       <c r="V18" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1861,22 +2167,25 @@
       <c r="Z18">
         <v>2.468921899795532</v>
       </c>
-      <c r="AA18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300548</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>1.43</v>
@@ -1894,7 +2203,7 @@
         <v>53858.7</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -1914,8 +2223,23 @@
       <c r="P19">
         <v>0.29</v>
       </c>
+      <c r="Q19">
+        <v>1.7</v>
+      </c>
+      <c r="R19">
+        <v>92.7</v>
+      </c>
+      <c r="S19">
+        <v>6.1</v>
+      </c>
       <c r="V19" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1923,22 +2247,25 @@
       <c r="Z19">
         <v>1.682408213615417</v>
       </c>
-      <c r="AA19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300591</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>2.63</v>
@@ -1956,7 +2283,7 @@
         <v>30808.68</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>20</v>
@@ -1976,8 +2303,23 @@
       <c r="P20">
         <v>0.67</v>
       </c>
+      <c r="Q20">
+        <v>5.09</v>
+      </c>
+      <c r="R20">
+        <v>13.31</v>
+      </c>
+      <c r="S20">
+        <v>6.57</v>
+      </c>
       <c r="V20" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -1985,22 +2327,25 @@
       <c r="Z20">
         <v>2.7455153465271</v>
       </c>
-      <c r="AA20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300600</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-0.6899999999999999</v>
@@ -2018,7 +2363,7 @@
         <v>7911.25</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>17</v>
@@ -2038,8 +2383,23 @@
       <c r="P21">
         <v>0.03</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>16.44</v>
+      </c>
+      <c r="S21">
+        <v>4.18</v>
+      </c>
       <c r="V21" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2047,22 +2407,25 @@
       <c r="Z21">
         <v>0.8630952835083008</v>
       </c>
-      <c r="AA21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300631</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-2.35</v>
@@ -2080,7 +2443,7 @@
         <v>31064.78</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2100,8 +2463,23 @@
       <c r="P22">
         <v>-0.2</v>
       </c>
+      <c r="Q22">
+        <v>-6.45</v>
+      </c>
+      <c r="R22">
+        <v>33.45</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
       <c r="V22" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2109,22 +2487,25 @@
       <c r="Z22">
         <v>2.277872085571289</v>
       </c>
-      <c r="AA22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300644</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>2.5</v>
@@ -2142,7 +2523,7 @@
         <v>30745.41</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2162,8 +2543,23 @@
       <c r="P23">
         <v>1.04</v>
       </c>
+      <c r="Q23">
+        <v>-6.7</v>
+      </c>
+      <c r="R23">
+        <v>35.28</v>
+      </c>
+      <c r="S23">
+        <v>2.44</v>
+      </c>
       <c r="V23" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2171,22 +2567,25 @@
       <c r="Z23">
         <v>3.400570154190063</v>
       </c>
-      <c r="AA23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300748</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.3</v>
@@ -2204,7 +2603,7 @@
         <v>43588.61</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K24">
         <v>7</v>
@@ -2224,8 +2623,23 @@
       <c r="P24">
         <v>-0.01</v>
       </c>
+      <c r="Q24">
+        <v>-0.34</v>
+      </c>
+      <c r="R24">
+        <v>27.37</v>
+      </c>
+      <c r="S24">
+        <v>2.7</v>
+      </c>
       <c r="V24" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2233,22 +2647,25 @@
       <c r="Z24">
         <v>4.302236557006836</v>
       </c>
-      <c r="AA24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300803</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-1.95</v>
@@ -2266,7 +2683,7 @@
         <v>68157.03</v>
       </c>
       <c r="J25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25">
         <v>17</v>
@@ -2286,8 +2703,23 @@
       <c r="P25">
         <v>-0.19</v>
       </c>
+      <c r="Q25">
+        <v>2.51</v>
+      </c>
+      <c r="R25">
+        <v>88.15000000000001</v>
+      </c>
+      <c r="S25">
+        <v>3.96</v>
+      </c>
       <c r="V25" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2295,22 +2727,25 @@
       <c r="Z25">
         <v>0.7801158428192139</v>
       </c>
-      <c r="AA25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300839</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>10.39</v>
@@ -2328,7 +2763,7 @@
         <v>17446.42</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2348,8 +2783,23 @@
       <c r="P26">
         <v>0</v>
       </c>
+      <c r="Q26">
+        <v>-4.34</v>
+      </c>
+      <c r="R26">
+        <v>14.83</v>
+      </c>
+      <c r="S26">
+        <v>-5.72</v>
+      </c>
       <c r="V26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2357,22 +2807,25 @@
       <c r="Z26">
         <v>-0.3922421336174011</v>
       </c>
-      <c r="AA26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300872</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>3.69</v>
@@ -2390,7 +2843,7 @@
         <v>47055.22</v>
       </c>
       <c r="J27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>26</v>
@@ -2410,8 +2863,23 @@
       <c r="P27">
         <v>0.4</v>
       </c>
+      <c r="Q27">
+        <v>4.49</v>
+      </c>
+      <c r="R27">
+        <v>25.68</v>
+      </c>
+      <c r="S27">
+        <v>2.64</v>
+      </c>
       <c r="V27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2419,22 +2887,25 @@
       <c r="Z27">
         <v>1.79276442527771</v>
       </c>
-      <c r="AA27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300950</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-6.04</v>
@@ -2452,7 +2923,7 @@
         <v>19913.84</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -2472,8 +2943,23 @@
       <c r="P28">
         <v>0.27</v>
       </c>
+      <c r="Q28">
+        <v>-6.24</v>
+      </c>
+      <c r="R28">
+        <v>30.98</v>
+      </c>
+      <c r="S28">
+        <v>-2.3</v>
+      </c>
       <c r="V28" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2481,22 +2967,25 @@
       <c r="Z28">
         <v>0.7802099585533142</v>
       </c>
-      <c r="AA28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>301012</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>2.43</v>
@@ -2514,7 +3003,7 @@
         <v>18508.92</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2534,8 +3023,23 @@
       <c r="P29">
         <v>0.23</v>
       </c>
+      <c r="Q29">
+        <v>-4.77</v>
+      </c>
+      <c r="R29">
+        <v>23.71</v>
+      </c>
+      <c r="S29">
+        <v>-1.21</v>
+      </c>
       <c r="V29" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2543,22 +3047,25 @@
       <c r="Z29">
         <v>0.8498433232307434</v>
       </c>
-      <c r="AA29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>301132</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-2.75</v>
@@ -2576,7 +3083,7 @@
         <v>19877.05</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2596,8 +3103,23 @@
       <c r="P30">
         <v>0.22</v>
       </c>
+      <c r="Q30">
+        <v>-2.99</v>
+      </c>
+      <c r="R30">
+        <v>38.45</v>
+      </c>
+      <c r="S30">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V30" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2605,22 +3127,25 @@
       <c r="Z30">
         <v>0.8163473606109619</v>
       </c>
-      <c r="AA30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>301141</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>-2.61</v>
@@ -2638,7 +3163,7 @@
         <v>25354.85</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>17</v>
@@ -2658,8 +3183,23 @@
       <c r="P31">
         <v>-0.48</v>
       </c>
+      <c r="Q31">
+        <v>-4.01</v>
+      </c>
+      <c r="R31">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="S31">
+        <v>-1.42</v>
+      </c>
       <c r="V31" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2667,22 +3207,25 @@
       <c r="Z31">
         <v>1.33039915561676</v>
       </c>
-      <c r="AA31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>301165</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-0.11</v>
@@ -2700,7 +3243,7 @@
         <v>10399.42</v>
       </c>
       <c r="J32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32">
         <v>4</v>
@@ -2720,8 +3263,23 @@
       <c r="P32">
         <v>-0.2</v>
       </c>
+      <c r="Q32">
+        <v>-0.85</v>
+      </c>
+      <c r="R32">
+        <v>64.5</v>
+      </c>
+      <c r="S32">
+        <v>2.09</v>
+      </c>
       <c r="V32" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2729,22 +3287,25 @@
       <c r="Z32">
         <v>4.639852523803711</v>
       </c>
-      <c r="AA32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>301176</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>0.36</v>
@@ -2762,7 +3323,7 @@
         <v>8726.52</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K33">
         <v>22</v>
@@ -2782,8 +3343,23 @@
       <c r="P33">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q33">
+        <v>-4.61</v>
+      </c>
+      <c r="R33">
+        <v>34.45</v>
+      </c>
+      <c r="S33">
+        <v>2.5</v>
+      </c>
       <c r="V33" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2791,22 +3367,25 @@
       <c r="Z33">
         <v>2.248843431472778</v>
       </c>
-      <c r="AA33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>301183</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-1.3</v>
@@ -2824,7 +3403,7 @@
         <v>15025.55</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2844,8 +3423,23 @@
       <c r="P34">
         <v>-0.26</v>
       </c>
+      <c r="Q34">
+        <v>-6.89</v>
+      </c>
+      <c r="R34">
+        <v>74.8</v>
+      </c>
+      <c r="S34">
+        <v>0.25</v>
+      </c>
       <c r="V34" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2853,22 +3447,25 @@
       <c r="Z34">
         <v>3.924197912216187</v>
       </c>
-      <c r="AA34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301217</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-2.88</v>
@@ -2886,7 +3483,7 @@
         <v>51141.73</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K35">
         <v>11</v>
@@ -2906,8 +3503,23 @@
       <c r="P35">
         <v>-0.02</v>
       </c>
+      <c r="Q35">
+        <v>-5.25</v>
+      </c>
+      <c r="R35">
+        <v>22.16</v>
+      </c>
+      <c r="S35">
+        <v>6.03</v>
+      </c>
       <c r="V35" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2915,22 +3527,25 @@
       <c r="Z35">
         <v>2.361269235610962</v>
       </c>
-      <c r="AA35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301265</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-4.66</v>
@@ -2948,7 +3563,7 @@
         <v>12893.78</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2968,8 +3583,23 @@
       <c r="P36">
         <v>-0.3</v>
       </c>
+      <c r="Q36">
+        <v>-2.8</v>
+      </c>
+      <c r="R36">
+        <v>13.17</v>
+      </c>
+      <c r="S36">
+        <v>2.09</v>
+      </c>
       <c r="V36" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -2977,22 +3607,25 @@
       <c r="Z36">
         <v>4.596826076507568</v>
       </c>
-      <c r="AA36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301345</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-1.29</v>
@@ -3010,7 +3643,7 @@
         <v>6474.17</v>
       </c>
       <c r="J37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K37">
         <v>15</v>
@@ -3030,8 +3663,23 @@
       <c r="P37">
         <v>-0.17</v>
       </c>
+      <c r="Q37">
+        <v>-1.31</v>
+      </c>
+      <c r="R37">
+        <v>137.1</v>
+      </c>
+      <c r="S37">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="V37" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3039,22 +3687,25 @@
       <c r="Z37">
         <v>4.324441432952881</v>
       </c>
-      <c r="AA37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301357</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1.91</v>
@@ -3072,7 +3723,7 @@
         <v>10619.61</v>
       </c>
       <c r="J38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3092,8 +3743,23 @@
       <c r="P38">
         <v>-0.24</v>
       </c>
+      <c r="Q38">
+        <v>8.5</v>
+      </c>
+      <c r="R38">
+        <v>95.61</v>
+      </c>
+      <c r="S38">
+        <v>16.58</v>
+      </c>
       <c r="V38" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3101,22 +3767,25 @@
       <c r="Z38">
         <v>5.047154903411865</v>
       </c>
-      <c r="AA38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301377</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-1.13</v>
@@ -3134,7 +3803,7 @@
         <v>10679.31</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -3154,8 +3823,23 @@
       <c r="P39">
         <v>-0.02</v>
       </c>
+      <c r="Q39">
+        <v>0.89</v>
+      </c>
+      <c r="R39">
+        <v>46.99</v>
+      </c>
+      <c r="S39">
+        <v>5.67</v>
+      </c>
       <c r="V39" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3163,22 +3847,25 @@
       <c r="Z39">
         <v>1.859755396842957</v>
       </c>
-      <c r="AA39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301388</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-6.86</v>
@@ -3196,7 +3883,7 @@
         <v>12560.09</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -3216,8 +3903,23 @@
       <c r="P40">
         <v>-1.04</v>
       </c>
+      <c r="Q40">
+        <v>-5.57</v>
+      </c>
+      <c r="R40">
+        <v>39.88</v>
+      </c>
+      <c r="S40">
+        <v>6.49</v>
+      </c>
       <c r="V40" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -3225,22 +3927,25 @@
       <c r="Z40">
         <v>6.520944118499756</v>
       </c>
-      <c r="AA40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301389</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-1.39</v>
@@ -3258,7 +3963,7 @@
         <v>19707.29</v>
       </c>
       <c r="J41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -3278,8 +3983,23 @@
       <c r="P41">
         <v>-1.22</v>
       </c>
+      <c r="Q41">
+        <v>-5.74</v>
+      </c>
+      <c r="R41">
+        <v>34.77</v>
+      </c>
+      <c r="S41">
+        <v>6.46</v>
+      </c>
       <c r="V41" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3287,22 +4007,25 @@
       <c r="Z41">
         <v>4.331255912780762</v>
       </c>
-      <c r="AA41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301421</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-1.64</v>
@@ -3320,7 +4043,7 @@
         <v>10854.24</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K42">
         <v>21</v>
@@ -3340,8 +4063,23 @@
       <c r="P42">
         <v>-0.03</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>78.31</v>
+      </c>
+      <c r="S42">
+        <v>4.73</v>
+      </c>
       <c r="V42" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3349,22 +4087,25 @@
       <c r="Z42">
         <v>1.299038052558899</v>
       </c>
-      <c r="AA42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301511</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>0.86</v>
@@ -3382,7 +4123,7 @@
         <v>16883</v>
       </c>
       <c r="J43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K43">
         <v>20</v>
@@ -3402,8 +4143,23 @@
       <c r="P43">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q43">
+        <v>-4.31</v>
+      </c>
+      <c r="R43">
+        <v>29.31</v>
+      </c>
+      <c r="S43">
+        <v>14.18</v>
+      </c>
       <c r="V43" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3411,22 +4167,25 @@
       <c r="Z43">
         <v>1.213280320167542</v>
       </c>
-      <c r="AA43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301526</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-0.2</v>
@@ -3444,7 +4203,7 @@
         <v>12292.88</v>
       </c>
       <c r="J44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K44">
         <v>10</v>
@@ -3464,8 +4223,23 @@
       <c r="P44">
         <v>-0.04</v>
       </c>
+      <c r="Q44">
+        <v>-2.38</v>
+      </c>
+      <c r="R44">
+        <v>5.13</v>
+      </c>
+      <c r="S44">
+        <v>4.27</v>
+      </c>
       <c r="V44" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3473,22 +4247,25 @@
       <c r="Z44">
         <v>2.580008268356323</v>
       </c>
-      <c r="AA44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>688062</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-2.2</v>
@@ -3506,7 +4283,7 @@
         <v>15075.67</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K45">
         <v>13</v>
@@ -3526,8 +4303,23 @@
       <c r="P45">
         <v>-0.1</v>
       </c>
+      <c r="Q45">
+        <v>-6.94</v>
+      </c>
+      <c r="R45">
+        <v>35.95</v>
+      </c>
+      <c r="S45">
+        <v>1.27</v>
+      </c>
       <c r="V45" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3535,22 +4327,25 @@
       <c r="Z45">
         <v>2.645438671112061</v>
       </c>
-      <c r="AA45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>688117</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-2.78</v>
@@ -3568,7 +4363,7 @@
         <v>14284.21</v>
       </c>
       <c r="J46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K46">
         <v>5</v>
@@ -3588,8 +4383,23 @@
       <c r="P46">
         <v>-0.09</v>
       </c>
+      <c r="Q46">
+        <v>-4.89</v>
+      </c>
+      <c r="R46">
+        <v>43.51</v>
+      </c>
+      <c r="S46">
+        <v>5.38</v>
+      </c>
       <c r="V46" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -3597,22 +4407,25 @@
       <c r="Z46">
         <v>3.574323892593384</v>
       </c>
-      <c r="AA46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>688202</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-4.82</v>
@@ -3630,7 +4443,7 @@
         <v>23549.39</v>
       </c>
       <c r="J47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -3650,8 +4463,23 @@
       <c r="P47">
         <v>-0.39</v>
       </c>
+      <c r="Q47">
+        <v>0.88</v>
+      </c>
+      <c r="R47">
+        <v>62.3</v>
+      </c>
+      <c r="S47">
+        <v>9.449999999999999</v>
+      </c>
       <c r="V47" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3659,22 +4487,25 @@
       <c r="Z47">
         <v>8.765488624572754</v>
       </c>
-      <c r="AA47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>688221</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>4.07</v>
@@ -3692,7 +4523,7 @@
         <v>16414.41</v>
       </c>
       <c r="J48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -3712,8 +4543,23 @@
       <c r="P48">
         <v>-0.01</v>
       </c>
+      <c r="Q48">
+        <v>7.43</v>
+      </c>
+      <c r="R48">
+        <v>24.18</v>
+      </c>
+      <c r="S48">
+        <v>8.630000000000001</v>
+      </c>
       <c r="V48" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3721,22 +4567,25 @@
       <c r="Z48">
         <v>0.7572541236877441</v>
       </c>
-      <c r="AA48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>688222</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>0.49</v>
@@ -3754,7 +4603,7 @@
         <v>34859</v>
       </c>
       <c r="J49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -3774,8 +4623,23 @@
       <c r="P49">
         <v>-0.17</v>
       </c>
+      <c r="Q49">
+        <v>4.18</v>
+      </c>
+      <c r="R49">
+        <v>26.49</v>
+      </c>
+      <c r="S49">
+        <v>18.52</v>
+      </c>
       <c r="V49" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>1</v>
@@ -3783,22 +4647,25 @@
       <c r="Z49">
         <v>4.479129314422607</v>
       </c>
-      <c r="AA49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>688313</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>0.75</v>
@@ -3816,7 +4683,7 @@
         <v>38679.24</v>
       </c>
       <c r="J50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50">
         <v>24</v>
@@ -3836,8 +4703,23 @@
       <c r="P50">
         <v>0.02</v>
       </c>
+      <c r="Q50">
+        <v>4.61</v>
+      </c>
+      <c r="R50">
+        <v>59.77</v>
+      </c>
+      <c r="S50">
+        <v>10.89</v>
+      </c>
       <c r="V50" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3845,22 +4727,25 @@
       <c r="Z50">
         <v>0.9675132632255554</v>
       </c>
-      <c r="AA50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>688499</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>-0.1</v>
@@ -3878,7 +4763,7 @@
         <v>24089.58</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K51">
         <v>25</v>
@@ -3898,8 +4783,23 @@
       <c r="P51">
         <v>-0.25</v>
       </c>
+      <c r="Q51">
+        <v>7.77</v>
+      </c>
+      <c r="R51">
+        <v>55.62</v>
+      </c>
+      <c r="S51">
+        <v>14.47</v>
+      </c>
       <c r="V51" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3907,22 +4807,25 @@
       <c r="Z51">
         <v>4.622777938842773</v>
       </c>
-      <c r="AA51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688668</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>3.37</v>
@@ -3940,7 +4843,7 @@
         <v>17335.16</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -3960,8 +4863,23 @@
       <c r="P52">
         <v>0.16</v>
       </c>
+      <c r="Q52">
+        <v>0.78</v>
+      </c>
+      <c r="R52">
+        <v>82.73</v>
+      </c>
+      <c r="S52">
+        <v>12.99</v>
+      </c>
       <c r="V52" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -3969,8 +4887,11 @@
       <c r="Z52">
         <v>1.791649699211121</v>
       </c>
-      <c r="AA52" t="s">
-        <v>116</v>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
